--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="30049" windowHeight="15717" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PackageList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
   <si>
     <t>name</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>behaviac</t>
     </r>
     <r>
@@ -202,6 +208,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高性能的</t>
     </r>
     <r>
@@ -231,6 +243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>Unity il2cpp</t>
     </r>
     <r>
@@ -251,6 +269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>KCP C#</t>
     </r>
     <r>
@@ -325,6 +349,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>luban</t>
     </r>
     <r>
@@ -435,6 +465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>Project Auditor is an experimental static analysis tool for Unity Projects.(</t>
     </r>
     <r>
@@ -563,6 +599,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>UnityChanToonShaderVer2 Project(</t>
     </r>
     <r>
@@ -601,6 +643,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A simple yet powerful class-based hierarchical finite state machine for Unity(</t>
     </r>
     <r>
@@ -666,6 +714,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A very simple toon lit shader example(</t>
     </r>
     <r>
@@ -731,6 +785,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>A charting and data visualization library for Unity. Unity</t>
     </r>
     <r>
@@ -835,6 +895,24 @@
   </si>
   <si>
     <t>https://github.com/XINCGer/Unity3DTraining</t>
+  </si>
+  <si>
+    <t>大话设计模式</t>
+  </si>
+  <si>
+    <t>大话设计模式电子版</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/zhili/p/DesignPatternSummery.html</t>
+  </si>
+  <si>
+    <t>游戏设计模式</t>
+  </si>
+  <si>
+    <t>设计模式：可复用面向对象软件的基础</t>
+  </si>
+  <si>
+    <t>https://gpp.tkchu.me/introduction.html</t>
   </si>
   <si>
     <t>ECSSample</t>
@@ -1009,10 +1087,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1548,19 +1626,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,7 +1771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1771,9 +1849,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2088,16 +2163,16 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A54" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.3166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.075" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.3761467889908" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.3211009174312" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5871559633027" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.0733944954128" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -2113,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="34.5" spans="1:3">
+    <row r="2" ht="38.05" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2124,7 +2199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="34.5" spans="1:3">
+    <row r="3" ht="38.05" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2135,7 +2210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="34.5" spans="1:3">
+    <row r="4" ht="38.05" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="34.5" spans="1:3">
+    <row r="5" ht="57.05" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="34.5" spans="1:3">
+    <row r="6" ht="38.05" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2168,7 +2243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="31.5" spans="1:3">
+    <row r="7" ht="35.3" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2190,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="34.5" spans="1:3">
+    <row r="9" ht="38.05" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="34.5" spans="1:3">
+    <row r="11" ht="38.05" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2223,7 +2298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="34.5" spans="1:3">
+    <row r="12" ht="38.05" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2234,7 +2309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="34.5" spans="1:3">
+    <row r="13" ht="38.05" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="34.5" spans="1:3">
+    <row r="14" ht="38.05" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="34.5" spans="1:3">
+    <row r="15" ht="38.05" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" ht="34.5" spans="1:5">
+    <row r="16" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2280,7 +2355,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="34.5" spans="1:3">
+    <row r="17" ht="38.05" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2291,7 +2366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" spans="1:5">
+    <row r="18" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2328,7 +2403,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="38.05" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2339,7 +2414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="1" ht="34.5" spans="1:5">
+    <row r="22" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2352,7 +2427,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="34.5" spans="1:3">
+    <row r="23" ht="38.05" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -2363,7 +2438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" ht="34.5" spans="1:3">
+    <row r="24" ht="57.05" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -2374,7 +2449,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" ht="34.5" spans="1:3">
+    <row r="25" ht="38.05" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2385,7 +2460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="34.5" spans="1:3">
+    <row r="26" ht="38.05" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -2396,7 +2471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="34.5" spans="1:3">
+    <row r="27" ht="38.05" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
@@ -2407,7 +2482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="34.5" spans="1:3">
+    <row r="28" ht="38.05" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2418,7 +2493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="38.05" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -2429,7 +2504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" ht="34.5" spans="1:3">
+    <row r="30" ht="38.05" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -2451,7 +2526,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="1" ht="34.5" spans="1:5">
+    <row r="32" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
@@ -2464,7 +2539,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="38.05" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
@@ -2475,7 +2550,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" ht="34.5" spans="1:3">
+    <row r="34" ht="57.05" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -2486,7 +2561,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" ht="34.5" spans="1:3">
+    <row r="35" ht="38.05" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -2497,7 +2572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" ht="34.5" spans="1:3">
+    <row r="36" ht="38.05" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -2508,7 +2583,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="38.05" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -2519,7 +2594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" ht="34.5" spans="1:3">
+    <row r="38" ht="38.05" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -2530,7 +2605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" ht="34.5" spans="1:3">
+    <row r="39" ht="38.05" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -2541,7 +2616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" ht="51.75" spans="1:3">
+    <row r="40" ht="57.05" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -2563,7 +2638,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" s="19" customFormat="1" ht="34.5" spans="1:5">
+    <row r="42" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -2576,7 +2651,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" s="19" customFormat="1" ht="34.5" spans="1:5">
+    <row r="43" s="19" customFormat="1" ht="38.05" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -2589,7 +2664,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="34.5" spans="1:3">
+    <row r="44" ht="38.05" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -2600,7 +2675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" ht="38.05" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -2611,7 +2686,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" ht="34.5" spans="1:3">
+    <row r="46" ht="38.05" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2622,7 +2697,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" ht="34.5" spans="1:3">
+    <row r="47" ht="38.05" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>136</v>
       </c>
@@ -2633,7 +2708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" ht="34.5" spans="1:3">
+    <row r="48" ht="38.05" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
@@ -2644,7 +2719,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="34.5" spans="1:3">
+    <row r="49" ht="38.05" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -2655,7 +2730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" ht="34.5" spans="1:3">
+    <row r="50" ht="38.05" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>145</v>
       </c>
@@ -2666,7 +2741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" ht="34.5" spans="1:3">
+    <row r="51" ht="38.05" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
@@ -2677,7 +2752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" ht="34.5" spans="1:3">
+    <row r="52" ht="38.05" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
@@ -2688,7 +2763,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="38.05" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -2699,7 +2774,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" ht="34.5" spans="1:3">
+    <row r="54" ht="38.05" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -2710,7 +2785,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="38.05" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -2721,7 +2796,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" ht="31.5" spans="1:3">
+    <row r="56" ht="38.05" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>163</v>
       </c>
@@ -2754,7 +2829,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" ht="38.05" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>172</v>
       </c>
@@ -2765,7 +2840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" ht="34.5" spans="1:5">
+    <row r="60" ht="38.05" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
@@ -2778,7 +2853,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
     </row>
-    <row r="61" ht="34.5" spans="1:5">
+    <row r="61" ht="38.05" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
@@ -2797,15 +2872,15 @@
       <c r="E62" s="19"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="24"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
       <c r="C64" s="24"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -2906,16 +2981,16 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.65" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.4166666666667" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.3833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.075" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.4128440366972" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.3853211009174" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.7522935779817" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.0733944954128" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="17"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
@@ -2931,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:3">
+    <row r="2" ht="25.8" spans="1:3">
       <c r="A2" s="16" t="s">
         <v>181</v>
       </c>
@@ -2942,7 +3017,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" ht="34.5" spans="1:3">
+    <row r="3" ht="35.3" spans="1:3">
       <c r="A3" s="16" t="s">
         <v>184</v>
       </c>
@@ -2953,7 +3028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" ht="34.5" spans="1:3">
+    <row r="4" ht="35.3" spans="1:3">
       <c r="A4" s="16" t="s">
         <v>187</v>
       </c>
@@ -2986,11 +3061,27 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="7"/>
+    <row r="7" ht="25.8" spans="1:3">
+      <c r="A7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="7"/>
@@ -3031,6 +3122,8 @@
     <hyperlink ref="C4" r:id="rId3" display="https://github.com/hstcscolor/awesome-gameserver-cn"/>
     <hyperlink ref="C5" r:id="rId4" display="https://github.com/fighting41love/funNLP"/>
     <hyperlink ref="C6" r:id="rId5" display="https://github.com/XINCGer/Unity3DTraining"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.cnblogs.com/zhili/p/DesignPatternSummery.html"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://gpp.tkchu.me/introduction.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3043,16 +3136,16 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.3166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.075" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.3761467889908" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.3211009174312" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5871559633027" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.0733944954128" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -3069,132 +3162,132 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="46.85" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="33" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="31.25" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="34.5" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="38.05" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="51.75" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="57.05" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="34.5" spans="1:5">
+    <row r="6" s="2" customFormat="1" ht="38.05" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
+    <row r="7" s="2" customFormat="1" ht="25.8" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="27" spans="1:5">
+    <row r="8" s="2" customFormat="1" ht="25.8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="34.5" spans="1:5">
+    <row r="9" s="2" customFormat="1" ht="57.05" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="33" spans="1:5">
+    <row r="10" s="2" customFormat="1" ht="31.25" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="49.5" spans="1:5">
+    <row r="11" s="2" customFormat="1" ht="46.85" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>

--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30049" windowHeight="15717" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PackageList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -336,6 +336,16 @@
     <t>https://github.com/KumoKyaku/kcp</t>
   </si>
   <si>
+    <t xml:space="preserve">kcp
+</t>
+  </si>
+  <si>
+    <t>KCP - A Fast and Reliable ARQ Protocol</t>
+  </si>
+  <si>
+    <t>https://github.com/skywind3000/kcp?tab=readme-ov-file</t>
+  </si>
+  <si>
     <t>Litjson</t>
   </si>
   <si>
@@ -915,6 +925,39 @@
     <t>https://gpp.tkchu.me/introduction.html</t>
   </si>
   <si>
+    <t>WebTemplete</t>
+  </si>
+  <si>
+    <t>免费、开源、高效、简洁、强悍的CMS源码</t>
+  </si>
+  <si>
+    <t>https://www.pbootcms.com/</t>
+  </si>
+  <si>
+    <t>pbootcms_LoginTemplete</t>
+  </si>
+  <si>
+    <t>一款美化后的pbootcms后台登录页面</t>
+  </si>
+  <si>
+    <t>https://github.com/T-Y-P/pbootcms-background-login</t>
+  </si>
+  <si>
+    <t>Unity框架</t>
+  </si>
+  <si>
+    <t>持续更新的Untiy框架集合</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/lihuixiaodui/article/details/139635579</t>
+  </si>
+  <si>
+    <t>设计模式导学</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/LoveLion/article/details/17517213</t>
+  </si>
+  <si>
     <t>ECSSample</t>
   </si>
   <si>
@@ -1080,6 +1123,15 @@
   </si>
   <si>
     <t>https://github.com/supabase/supabase</t>
+  </si>
+  <si>
+    <t>Unity WebGL template</t>
+  </si>
+  <si>
+    <t>A better default template for Unity WebGL</t>
+  </si>
+  <si>
+    <t>https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1626,19 +1678,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2161,18 +2213,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.3761467889908" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.3211009174312" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5871559633027" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.0733944954128" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.325" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.075" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -2188,7 +2240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="38.05" spans="1:3">
+    <row r="2" ht="34.5" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="38.05" spans="1:3">
+    <row r="3" ht="34.5" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="38.05" spans="1:3">
+    <row r="4" ht="34.5" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="57.05" spans="1:3">
+    <row r="5" ht="34.5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2232,7 +2284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="38.05" spans="1:3">
+    <row r="6" ht="34.5" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" ht="35.3" spans="1:3">
+    <row r="7" ht="31.5" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2265,7 +2317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="38.05" spans="1:3">
+    <row r="9" ht="34.5" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2287,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="38.05" spans="1:3">
+    <row r="11" ht="34.5" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -2298,7 +2350,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="38.05" spans="1:3">
+    <row r="12" ht="34.5" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="38.05" spans="1:3">
+    <row r="13" ht="34.5" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2320,7 +2372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="38.05" spans="1:3">
+    <row r="14" ht="34.5" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -2331,7 +2383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" ht="38.05" spans="1:3">
+    <row r="15" ht="34.5" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2342,7 +2394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" ht="38.05" spans="1:5">
+    <row r="16" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2355,7 +2407,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="38.05" spans="1:3">
+    <row r="17" ht="34.5" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2366,7 +2418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" ht="38.05" spans="1:5">
+    <row r="18" s="19" customFormat="1" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
@@ -2390,20 +2442,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" s="19" customFormat="1" spans="1:5">
+    <row r="20" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="38.05" spans="1:3">
+    <row r="21" s="19" customFormat="1" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2413,8 +2465,10 @@
       <c r="C21" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" s="19" customFormat="1" ht="38.05" spans="1:5">
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -2424,32 +2478,32 @@
       <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="38.05" spans="1:3">
+    </row>
+    <row r="23" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" ht="57.05" spans="1:3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" ht="34.5" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" ht="38.05" spans="1:3">
+    <row r="25" ht="34.5" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2460,7 +2514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" ht="38.05" spans="1:3">
+    <row r="26" ht="34.5" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -2471,7 +2525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" ht="38.05" spans="1:3">
+    <row r="27" ht="34.5" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
@@ -2482,7 +2536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" ht="38.05" spans="1:3">
+    <row r="28" ht="34.5" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2493,7 +2547,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" ht="38.05" spans="1:3">
+    <row r="29" ht="34.5" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>82</v>
       </c>
@@ -2504,7 +2558,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" ht="38.05" spans="1:3">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>85</v>
       </c>
@@ -2515,7 +2569,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="34.5" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -2526,7 +2580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" s="19" customFormat="1" ht="38.05" spans="1:5">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
@@ -2536,10 +2590,8 @@
       <c r="C32" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="38.05" spans="1:3">
+    </row>
+    <row r="33" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
@@ -2549,8 +2601,10 @@
       <c r="C33" s="20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" ht="57.05" spans="1:3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -2561,29 +2615,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" ht="38.05" spans="1:3">
+    <row r="35" ht="34.5" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" ht="38.05" spans="1:3">
+    <row r="36" ht="34.5" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="37" ht="38.05" spans="1:3">
+    <row r="37" ht="34.5" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -2594,7 +2648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" ht="38.05" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -2605,7 +2659,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" ht="38.05" spans="1:3">
+    <row r="39" ht="34.5" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -2616,7 +2670,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" ht="57.05" spans="1:3">
+    <row r="40" ht="34.5" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -2627,7 +2681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="51.75" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>118</v>
       </c>
@@ -2638,7 +2692,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" s="19" customFormat="1" ht="38.05" spans="1:5">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -2648,10 +2702,8 @@
       <c r="C42" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" s="19" customFormat="1" ht="38.05" spans="1:5">
+    </row>
+    <row r="43" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -2664,7 +2716,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" ht="38.05" spans="1:3">
+    <row r="44" s="19" customFormat="1" ht="34.5" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -2674,8 +2726,10 @@
       <c r="C44" s="20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" ht="38.05" spans="1:3">
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" ht="34.5" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -2686,7 +2740,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" ht="38.05" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2697,7 +2751,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" ht="38.05" spans="1:3">
+    <row r="47" ht="34.5" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>136</v>
       </c>
@@ -2708,7 +2762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" ht="38.05" spans="1:3">
+    <row r="48" ht="34.5" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
@@ -2719,7 +2773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" ht="38.05" spans="1:3">
+    <row r="49" ht="34.5" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -2730,7 +2784,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" ht="38.05" spans="1:3">
+    <row r="50" ht="34.5" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>145</v>
       </c>
@@ -2741,7 +2795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" ht="38.05" spans="1:3">
+    <row r="51" ht="34.5" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
@@ -2752,7 +2806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" ht="38.05" spans="1:3">
+    <row r="52" ht="34.5" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
@@ -2763,7 +2817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" ht="38.05" spans="1:3">
+    <row r="53" ht="34.5" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -2774,7 +2828,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" ht="38.05" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -2785,7 +2839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" ht="38.05" spans="1:3">
+    <row r="55" ht="34.5" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -2796,7 +2850,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" ht="38.05" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>163</v>
       </c>
@@ -2807,7 +2861,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="31.5" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>166</v>
       </c>
@@ -2829,52 +2883,56 @@
         <v>171</v>
       </c>
     </row>
-    <row r="59" ht="38.05" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" ht="38.05" spans="1:5">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" ht="38.05" spans="1:5">
+    </row>
+    <row r="61" ht="34.5" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-    </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="25"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" ht="34.5" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="25"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
@@ -2886,8 +2944,8 @@
       <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="24"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
@@ -2899,76 +2957,84 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+    </row>
   </sheetData>
   <sortState ref="A2:E66">
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D19 D21 D1:D15 D23:D31 D33:D41 D44:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D19 D22 D1:D15 D24:D32 D34:D42 D45:D1048576">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="https://github.com/Cysharp/MessagePipe?tab=readme-ov-file#unity"/>
-    <hyperlink ref="C29" r:id="rId2" display="https://github.com/JasonXuDeveloper/Nino"/>
+    <hyperlink ref="C24" r:id="rId1" display="https://github.com/Cysharp/MessagePipe?tab=readme-ov-file#unity"/>
+    <hyperlink ref="C30" r:id="rId2" display="https://github.com/JasonXuDeveloper/Nino"/>
     <hyperlink ref="C16" r:id="rId3" display="https://github.com/Higgins-PT/HigWaterSystem2"/>
-    <hyperlink ref="C58" r:id="rId4" display="https://github.com/tuyoogame/YooAsset"/>
+    <hyperlink ref="C59" r:id="rId4" display="https://github.com/tuyoogame/YooAsset"/>
     <hyperlink ref="C12" r:id="rId5" display="https://github.com/OndrejNepozitek/Edgar-Unity"/>
-    <hyperlink ref="C39" r:id="rId6" display="https://github.com/TouchScript/TouchScript"/>
-    <hyperlink ref="C47" r:id="rId7" display="https://github.com/yasirkula/UnityNativeShare"/>
+    <hyperlink ref="C40" r:id="rId6" display="https://github.com/TouchScript/TouchScript"/>
+    <hyperlink ref="C48" r:id="rId7" display="https://github.com/yasirkula/UnityNativeShare"/>
     <hyperlink ref="C19" r:id="rId8" display="https://github.com/KumoKyaku/kcp"/>
-    <hyperlink ref="C25" r:id="rId9" display="https://github.com/Unity-Technologies/ml-agents"/>
+    <hyperlink ref="C26" r:id="rId9" display="https://github.com/Unity-Technologies/ml-agents"/>
     <hyperlink ref="C13" r:id="rId10" display="https://github.com/snozbot/fungus"/>
-    <hyperlink ref="C49" r:id="rId11" display="https://github.com/gkngkc/UnityStandaloneFileBrowser"/>
-    <hyperlink ref="C26" r:id="rId12" display="https://github.com/Unity-Technologies/mono"/>
-    <hyperlink ref="C22" r:id="rId13" display="https://github.com/homuler/MediaPipeUnityPlugin"/>
-    <hyperlink ref="C27" r:id="rId14" display="https://github.com/naudio/NAudio"/>
+    <hyperlink ref="C50" r:id="rId11" display="https://github.com/gkngkc/UnityStandaloneFileBrowser"/>
+    <hyperlink ref="C27" r:id="rId12" display="https://github.com/Unity-Technologies/mono"/>
+    <hyperlink ref="C23" r:id="rId13" display="https://github.com/homuler/MediaPipeUnityPlugin"/>
+    <hyperlink ref="C28" r:id="rId14" display="https://github.com/naudio/NAudio"/>
     <hyperlink ref="C3" r:id="rId15" display="https://github.com/Unity-Technologies/Animation-Instancing"/>
-    <hyperlink ref="C21" r:id="rId16" display="https://github.com/focus-creative-games/luban"/>
-    <hyperlink ref="C52" r:id="rId17" display="https://github.com/adammyhre/Unity-Utils/tree/master"/>
-    <hyperlink ref="C48" r:id="rId18" display="https://github.com/SolarianZ/UnityPlayableGraphMonitorTool/tree/main"/>
+    <hyperlink ref="C22" r:id="rId16" display="https://github.com/focus-creative-games/luban"/>
+    <hyperlink ref="C53" r:id="rId17" display="https://github.com/adammyhre/Unity-Utils/tree/master"/>
+    <hyperlink ref="C49" r:id="rId18" display="https://github.com/SolarianZ/UnityPlayableGraphMonitorTool/tree/main"/>
     <hyperlink ref="C14" r:id="rId19" display="https://github.com/Tencent/GAutomator/tree/master"/>
     <hyperlink ref="C8" r:id="rId20" display="https://github.com/erincatto/box2d"/>
-    <hyperlink ref="C28" r:id="rId21" display="https://github.com/Nebukam/com.nebukam.orca"/>
+    <hyperlink ref="C29" r:id="rId21" display="https://github.com/Nebukam/com.nebukam.orca"/>
     <hyperlink ref="C7" r:id="rId22" display="https://github.com/Tencent/behaviac"/>
-    <hyperlink ref="C33" r:id="rId23" display="https://github.com/protocolbuffers/protobuf"/>
+    <hyperlink ref="C34" r:id="rId23" display="https://github.com/protocolbuffers/protobuf"/>
     <hyperlink ref="C2" r:id="rId24" display="https://github.com/lettier/3d-game-shaders-for-beginners"/>
     <hyperlink ref="C11" r:id="rId25" display="https://github.com/Azure/DotNetty"/>
-    <hyperlink ref="C45" r:id="rId26" display="https://github.com/KhronosGroup/UnityGLTF"/>
+    <hyperlink ref="C46" r:id="rId26" display="https://github.com/KhronosGroup/UnityGLTF"/>
     <hyperlink ref="C5" r:id="rId27" display="https://github.com/assimp/assimp"/>
-    <hyperlink ref="C20" r:id="rId28" display="https://github.com/LitJSON/litjson"/>
-    <hyperlink ref="C43" r:id="rId29" display="https://github.com/yasirkula/UnityBezierSolution"/>
-    <hyperlink ref="C30" r:id="rId30" display="https://github.com/ina-amagami/OverdrawForURP"/>
+    <hyperlink ref="C21" r:id="rId28" display="https://github.com/LitJSON/litjson"/>
+    <hyperlink ref="C44" r:id="rId29" display="https://github.com/yasirkula/UnityBezierSolution"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://github.com/ina-amagami/OverdrawForURP"/>
     <hyperlink ref="C17" r:id="rId31" display="https://github.com/Unity-Technologies/HLODSystem"/>
     <hyperlink ref="C4" r:id="rId32" display="https://github.com/Unity-Technologies/AssetGraph"/>
     <hyperlink ref="C9" r:id="rId33" display="https://github.com/Unity-Technologies/BuildReportInspector"/>
-    <hyperlink ref="C50" r:id="rId34" display="https://github.com/akbiggs/UnityTimer"/>
-    <hyperlink ref="C40" r:id="rId35" display="https://github.com/Matthew-J-Spencer/Ultimate-2D-Controller"/>
-    <hyperlink ref="C55" r:id="rId36" display="https://github.com/kou-yeung/WebGLInput"/>
+    <hyperlink ref="C51" r:id="rId34" display="https://github.com/akbiggs/UnityTimer"/>
+    <hyperlink ref="C41" r:id="rId35" display="https://github.com/Matthew-J-Spencer/Ultimate-2D-Controller"/>
+    <hyperlink ref="C56" r:id="rId36" display="https://github.com/kou-yeung/WebGLInput"/>
     <hyperlink ref="C10" r:id="rId37" display="https://github.com/wave-harmonic/crest"/>
-    <hyperlink ref="C37" r:id="rId38" display="https://github.com/fadookie/SpriteSlicer"/>
+    <hyperlink ref="C38" r:id="rId38" display="https://github.com/fadookie/SpriteSlicer"/>
     <hyperlink ref="C18" r:id="rId39" display="https://github.com/Perfare/Il2CppDumper"/>
-    <hyperlink ref="C41" r:id="rId40" display="https://github.com/neuecc/UniRx"/>
-    <hyperlink ref="C42" r:id="rId41" display="https://github.com/Cysharp/UniTask"/>
-    <hyperlink ref="C31" r:id="rId42" display="https://github.com/VeriorPies/ParrelSync"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://github.com/neuecc/UniRx"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://github.com/Cysharp/UniTask"/>
+    <hyperlink ref="C32" r:id="rId42" display="https://github.com/VeriorPies/ParrelSync"/>
     <hyperlink ref="C15" r:id="rId43" display="https://github.com/playgameservices/play-games-plugin-for-unity"/>
-    <hyperlink ref="C54" r:id="rId44" display="https://github.com/hadashiA/VContainer"/>
-    <hyperlink ref="C32" r:id="rId45" display="https://github.com/Unity-Technologies/ProjectAuditor"/>
+    <hyperlink ref="C55" r:id="rId44" display="https://github.com/hadashiA/VContainer"/>
+    <hyperlink ref="C33" r:id="rId45" display="https://github.com/Unity-Technologies/ProjectAuditor"/>
     <hyperlink ref="C6" r:id="rId46" display="https://github.com/Unity-Technologies/AutoLOD"/>
-    <hyperlink ref="C46" r:id="rId47" display="https://github.com/Inspiaaa/UnityHFSM"/>
-    <hyperlink ref="C35" r:id="rId48" display="https://github.com/mob-sakai/SoftMaskForUGUI"/>
-    <hyperlink ref="C36" r:id="rId49" display="https://github.com/EsotericSoftware/spine-runtimes"/>
-    <hyperlink ref="C34" r:id="rId50" display="https://github.com/yasirkula/UnityRuntimeInspector"/>
-    <hyperlink ref="C44" r:id="rId51" display="https://github.com/unity3d-jp/UnityChanToonShaderVer2_Project"/>
-    <hyperlink ref="C56" r:id="rId52" display="https://github.com/XCharts-Team/XCharts"/>
-    <hyperlink ref="C24" r:id="rId53" display="https://github.com/wechat-miniprogram/minigame-unity-webgl-transform"/>
-    <hyperlink ref="C53" r:id="rId54" display="https://github.com/psygames/UnityWebSocket"/>
-    <hyperlink ref="C38" r:id="rId55" display="https://github.com/kerryjiang/SuperSocket"/>
-    <hyperlink ref="C51" r:id="rId56" display="https://github.com/ColinLeung-NiloCat/UnityURPToonLitShaderExample"/>
-    <hyperlink ref="C57" r:id="rId57" display="https://github.com/aaubry/YamlDotNet"/>
-    <hyperlink ref="C59" r:id="rId58" display="https://github.com/icsharpcode/SharpZipLib"/>
-    <hyperlink ref="C60" r:id="rId59" display="https://github.com/MirrorNetworking/Telepathy/tree/master"/>
-    <hyperlink ref="C61" r:id="rId60" display="https://flowus.cn/enjoygameclub/share/fa2ac259-3498-4282-8200-3caeef47caef"/>
+    <hyperlink ref="C47" r:id="rId47" display="https://github.com/Inspiaaa/UnityHFSM"/>
+    <hyperlink ref="C36" r:id="rId48" display="https://github.com/mob-sakai/SoftMaskForUGUI"/>
+    <hyperlink ref="C37" r:id="rId49" display="https://github.com/EsotericSoftware/spine-runtimes"/>
+    <hyperlink ref="C35" r:id="rId50" display="https://github.com/yasirkula/UnityRuntimeInspector"/>
+    <hyperlink ref="C45" r:id="rId51" display="https://github.com/unity3d-jp/UnityChanToonShaderVer2_Project"/>
+    <hyperlink ref="C57" r:id="rId52" display="https://github.com/XCharts-Team/XCharts"/>
+    <hyperlink ref="C25" r:id="rId53" display="https://github.com/wechat-miniprogram/minigame-unity-webgl-transform"/>
+    <hyperlink ref="C54" r:id="rId54" display="https://github.com/psygames/UnityWebSocket"/>
+    <hyperlink ref="C39" r:id="rId55" display="https://github.com/kerryjiang/SuperSocket"/>
+    <hyperlink ref="C52" r:id="rId56" display="https://github.com/ColinLeung-NiloCat/UnityURPToonLitShaderExample"/>
+    <hyperlink ref="C58" r:id="rId57" display="https://github.com/aaubry/YamlDotNet"/>
+    <hyperlink ref="C60" r:id="rId58" display="https://github.com/icsharpcode/SharpZipLib"/>
+    <hyperlink ref="C61" r:id="rId59" display="https://github.com/MirrorNetworking/Telepathy/tree/master"/>
+    <hyperlink ref="C62" r:id="rId60" display="https://flowus.cn/enjoygameclub/share/fa2ac259-3498-4282-8200-3caeef47caef"/>
+    <hyperlink ref="C20" r:id="rId61" display="https://github.com/skywind3000/kcp?tab=readme-ov-file"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2982,15 +3048,15 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.65" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.4128440366972" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.3853211009174" style="16" customWidth="1"/>
-    <col min="3" max="3" width="53.7522935779817" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.0733944954128" style="16" customWidth="1"/>
+    <col min="1" max="1" width="24.4166666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.3833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.075" style="16" customWidth="1"/>
     <col min="5" max="5" width="9" style="17"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
@@ -3006,94 +3072,126 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="25.8" spans="1:3">
+    <row r="2" ht="27" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" ht="35.3" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" ht="34.5" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" ht="35.3" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" ht="34.5" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" ht="25.8" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="7"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:3">
+      <c r="A10" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:3">
+      <c r="A11" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:3">
+      <c r="A12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" s="7"/>
@@ -3124,6 +3222,10 @@
     <hyperlink ref="C6" r:id="rId5" display="https://github.com/XINCGer/Unity3DTraining"/>
     <hyperlink ref="C7" r:id="rId6" display="https://www.cnblogs.com/zhili/p/DesignPatternSummery.html"/>
     <hyperlink ref="C8" r:id="rId7" display="https://gpp.tkchu.me/introduction.html"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.pbootcms.com/"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://github.com/T-Y-P/pbootcms-background-login"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://blog.csdn.net/lihuixiaodui/article/details/139635579"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://blog.csdn.net/LoveLion/article/details/17517213"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3136,16 +3238,16 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.3761467889908" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.3211009174312" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5871559633027" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.0733944954128" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.325" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.075" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
@@ -3162,140 +3264,146 @@
       </c>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="46.85" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="31.25" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="38.05" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="57.05" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="51.75" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="38.05" spans="1:5">
+    <row r="6" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="25.8" spans="1:5">
+    <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="25.8" spans="1:5">
+    <row r="8" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="57.05" spans="1:5">
+    <row r="9" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="31.25" spans="1:5">
+    <row r="10" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="46.85" spans="1:5">
+    <row r="11" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+    <row r="12" s="2" customFormat="1" ht="27" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>
     </row>
@@ -3550,6 +3658,7 @@
     <hyperlink ref="C9" r:id="rId8" display="https://github.com/ciro-unity/AnimationRigging-AdvancedSetups"/>
     <hyperlink ref="C10" r:id="rId9" display="https://github.com/i000Tea/TeaDemo-Keyboard-CurveAnim-Effect"/>
     <hyperlink ref="C11" r:id="rId10" display="https://github.com/supabase/supabase"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="255">
   <si>
     <t>name</t>
   </si>
@@ -85,42 +85,7 @@
     <t>behaviac</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>behaviac</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是游戏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的开发框架组件，也是游戏原型的快速设计工具</t>
-    </r>
+    <t>behaviac是游戏AI的开发框架组件，也是游戏原型的快速设计工具</t>
   </si>
   <si>
     <t>https://github.com/Tencent/behaviac</t>
@@ -207,33 +172,7 @@
     <t>HLODSystem</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高性能的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LOD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
+    <t>高性能的LOD系统</t>
   </si>
   <si>
     <t>https://github.com/Unity-Technologies/HLODSystem</t>
@@ -242,24 +181,7 @@
     <t>Il2CppDumper</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Unity il2cpp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逆向工程</t>
-    </r>
+    <t>Unity il2cpp逆向工程</t>
   </si>
   <si>
     <t>https://github.com/Perfare/Il2CppDumper</t>
@@ -268,69 +190,7 @@
     <t>KCPForC#</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>KCP C#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版。线程安全，运行时无</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>alloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无压力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>KCP C#版。线程安全，运行时无alloc，对gc无压力.</t>
   </si>
   <si>
     <t>https://github.com/KumoKyaku/kcp</t>
@@ -358,24 +218,7 @@
     <t>luban</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>luban</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是一个强大、易用、优雅、稳定的游戏配置解决方案</t>
-    </r>
+    <t>luban是一个强大、易用、优雅、稳定的游戏配置解决方案</t>
   </si>
   <si>
     <t>https://github.com/focus-creative-games/luban</t>
@@ -474,33 +317,7 @@
     <t>Project Auditor</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Project Auditor is an experimental static analysis tool for Unity Projects.(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报告分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>Project Auditor is an experimental static analysis tool for Unity Projects.(报告分析)</t>
   </si>
   <si>
     <t>https://github.com/Unity-Technologies/ProjectAuditor</t>
@@ -608,33 +425,7 @@
     <t>UnityChanToonShaderVer2_Project</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UnityChanToonShaderVer2 Project(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>UnityChanToonShaderVer2 Project(卡通)</t>
   </si>
   <si>
     <t>https://github.com/unity3d-jp/UnityChanToonShaderVer2_Project</t>
@@ -652,33 +443,7 @@
     <t>UnityHFSM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A simple yet powerful class-based hierarchical finite state machine for Unity(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高级分层有限状态机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>A simple yet powerful class-based hierarchical finite state machine for Unity(高级分层有限状态机)</t>
   </si>
   <si>
     <t>https://github.com/Inspiaaa/UnityHFSM</t>
@@ -723,33 +488,7 @@
     <t>UnityURPToonLitShaderExample</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A very simple toon lit shader example(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卡通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>A very simple toon lit shader example(卡通)</t>
   </si>
   <si>
     <t>https://github.com/ColinLeung-NiloCat/UnityURPToonLitShaderExample</t>
@@ -794,24 +533,7 @@
     <t>XCharts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A charting and data visualization library for Unity. Unity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据可视化图表插件。</t>
-    </r>
+    <t>A charting and data visualization library for Unity. Unity数据可视化图表插件。</t>
   </si>
   <si>
     <t>https://github.com/XCharts-Team/XCharts</t>
@@ -862,6 +584,15 @@
     <t>https://flowus.cn/enjoygameclub/share/fa2ac259-3498-4282-8200-3caeef47caef</t>
   </si>
   <si>
+    <t>LoopScrollRect</t>
+  </si>
+  <si>
+    <t>无限滚动列表</t>
+  </si>
+  <si>
+    <t>https://github.com/qiankanglai/LoopScrollRect</t>
+  </si>
+  <si>
     <t>GameDevMind</t>
   </si>
   <si>
@@ -956,6 +687,15 @@
   </si>
   <si>
     <t>https://blog.csdn.net/LoveLion/article/details/17517213</t>
+  </si>
+  <si>
+    <t>Tencent GCloud</t>
+  </si>
+  <si>
+    <t>腾讯游戏研发技术</t>
+  </si>
+  <si>
+    <t>https://gcloud.tencent.com/</t>
   </si>
   <si>
     <t>ECSSample</t>
@@ -1222,20 +962,21 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Segoe UI"/>
+      <name val="微软雅黑"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF800080"/>
-      <name val="Segoe UI"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1887,19 +1628,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2215,8 +1956,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
@@ -2229,711 +1970,771 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="34.5" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" ht="34.5" spans="1:4">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="34.5" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" ht="34.5" spans="1:4">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="34.5" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" ht="34.5" spans="1:4">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="34.5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:4">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" ht="34.5" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:4">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="31.5" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:4">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="34.5" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:4">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="34.5" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" ht="34.5" spans="1:4">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" ht="34.5" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" ht="34.5" spans="1:4">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="34.5" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" ht="34.5" spans="1:4">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" ht="34.5" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" ht="34.5" spans="1:4">
+      <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" ht="34.5" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" ht="34.5" spans="1:4">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="34.5" spans="1:3">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="34.5" spans="1:4">
+      <c r="A17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" s="19" customFormat="1" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" s="19" customFormat="1" spans="1:5">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="34.5" spans="1:4">
+      <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
+      <c r="D22" s="16"/>
     </row>
     <row r="23" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="34.5" spans="1:3">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="34.5" spans="1:4">
+      <c r="A24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" ht="34.5" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" ht="51.75" spans="1:4">
+      <c r="A25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" ht="34.5" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" ht="34.5" spans="1:4">
+      <c r="A26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" ht="34.5" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" ht="34.5" spans="1:4">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" ht="34.5" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="16"/>
+    </row>
+    <row r="28" ht="34.5" spans="1:4">
+      <c r="A28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" ht="34.5" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" ht="34.5" spans="1:4">
+      <c r="A29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" ht="34.5" spans="1:4">
+      <c r="A30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="16" t="s">
         <v>86</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" ht="34.5" spans="1:3">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" ht="34.5" spans="1:4">
+      <c r="A31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>93</v>
       </c>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+    <row r="34" ht="34.5" spans="1:4">
+      <c r="A34" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" ht="34.5" spans="1:3">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" ht="34.5" spans="1:4">
+      <c r="A35" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" ht="34.5" spans="1:3">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" ht="34.5" spans="1:4">
+      <c r="A36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" ht="34.5" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" ht="34.5" spans="1:4">
+      <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" ht="34.5" spans="1:4">
+      <c r="A38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" ht="34.5" spans="1:3">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" ht="34.5" spans="1:4">
+      <c r="A39" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" ht="34.5" spans="1:3">
-      <c r="A40" s="2" t="s">
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" ht="34.5" spans="1:4">
+      <c r="A40" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" ht="51.75" spans="1:3">
-      <c r="A41" s="2" t="s">
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" ht="51.75" spans="1:4">
+      <c r="A41" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="16" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>123</v>
       </c>
+      <c r="D42" s="16"/>
     </row>
     <row r="43" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="34.5" spans="1:3">
-      <c r="A45" s="2" t="s">
+    <row r="45" ht="34.5" spans="1:4">
+      <c r="A45" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" ht="34.5" spans="1:4">
+      <c r="A46" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="16" t="s">
         <v>134</v>
       </c>
       <c r="C46" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" ht="34.5" spans="1:3">
-      <c r="A47" s="2" t="s">
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" ht="34.5" spans="1:4">
+      <c r="A47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="16" t="s">
         <v>137</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" ht="34.5" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" ht="34.5" spans="1:4">
+      <c r="A48" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" ht="34.5" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" ht="34.5" spans="1:4">
+      <c r="A49" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" ht="34.5" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" ht="34.5" spans="1:4">
+      <c r="A50" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="51" ht="34.5" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" ht="34.5" spans="1:4">
+      <c r="A51" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="16" t="s">
         <v>149</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" ht="34.5" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" ht="34.5" spans="1:4">
+      <c r="A52" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="53" ht="34.5" spans="1:3">
-      <c r="A53" s="2" t="s">
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" ht="34.5" spans="1:4">
+      <c r="A53" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C53" s="20" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" ht="34.5" spans="1:4">
+      <c r="A54" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="55" ht="34.5" spans="1:3">
-      <c r="A55" s="2" t="s">
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" ht="34.5" spans="1:4">
+      <c r="A55" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="16" t="s">
         <v>161</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" ht="34.5" spans="1:4">
+      <c r="A56" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="16" t="s">
         <v>164</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="57" ht="31.5" spans="1:3">
-      <c r="A57" s="2" t="s">
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" ht="34.5" spans="1:4">
+      <c r="A57" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C58" s="20" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="D58" s="16"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="16" t="s">
         <v>173</v>
       </c>
       <c r="C59" s="20" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
+      <c r="D59" s="16"/>
+    </row>
+    <row r="60" ht="34.5" spans="1:4">
+      <c r="A60" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>177</v>
       </c>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" ht="34.5" spans="1:5">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="19"/>
     </row>
     <row r="62" ht="34.5" spans="1:5">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="24"/>
     </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="25"/>
-      <c r="D63" s="19"/>
+    <row r="63" ht="33" spans="1:5">
+      <c r="A63" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="23"/>
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5">
@@ -3035,6 +2836,7 @@
     <hyperlink ref="C61" r:id="rId59" display="https://github.com/MirrorNetworking/Telepathy/tree/master"/>
     <hyperlink ref="C62" r:id="rId60" display="https://flowus.cn/enjoygameclub/share/fa2ac259-3498-4282-8200-3caeef47caef"/>
     <hyperlink ref="C20" r:id="rId61" display="https://github.com/skywind3000/kcp?tab=readme-ov-file"/>
+    <hyperlink ref="C63" r:id="rId62" display="https://github.com/qiankanglai/LoopScrollRect"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3047,7 +2849,7 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3074,127 +2876,135 @@
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="7"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="7"/>
@@ -3226,6 +3036,7 @@
     <hyperlink ref="C10" r:id="rId9" display="https://github.com/T-Y-P/pbootcms-background-login"/>
     <hyperlink ref="C11" r:id="rId10" display="https://blog.csdn.net/lihuixiaodui/article/details/139635579"/>
     <hyperlink ref="C12" r:id="rId11" display="https://blog.csdn.net/LoveLion/article/details/17517213"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://gcloud.tencent.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3266,143 +3077,143 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="51.75" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>

--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="PackageList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="258">
   <si>
     <t>name</t>
   </si>
@@ -591,6 +591,15 @@
   </si>
   <si>
     <t>https://github.com/qiankanglai/LoopScrollRect</t>
+  </si>
+  <si>
+    <t>vkquality</t>
+  </si>
+  <si>
+    <t>VkQuality plugin for the Unity engine</t>
+  </si>
+  <si>
+    <t>https://github.com/android/vkquality/tree/main</t>
   </si>
   <si>
     <t>GameDevMind</t>
@@ -1564,7 +1573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1642,6 +1651,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1956,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
@@ -2738,9 +2750,15 @@
       <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>189</v>
+      </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
     </row>
@@ -2837,6 +2855,7 @@
     <hyperlink ref="C62" r:id="rId60" display="https://flowus.cn/enjoygameclub/share/fa2ac259-3498-4282-8200-3caeef47caef"/>
     <hyperlink ref="C20" r:id="rId61" display="https://github.com/skywind3000/kcp?tab=readme-ov-file"/>
     <hyperlink ref="C63" r:id="rId62" display="https://github.com/qiankanglai/LoopScrollRect"/>
+    <hyperlink ref="C64" r:id="rId63" display="https://github.com/android/vkquality/tree/main"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2849,8 +2868,8 @@
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
@@ -2876,134 +2895,134 @@
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:3">
       <c r="A4" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -3077,143 +3096,143 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="51.75" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="34.5" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="49.5" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="27" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>

--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PackageList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="261">
   <si>
     <t>name</t>
   </si>
@@ -882,6 +882,15 @@
   <si>
     <t>https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file</t>
   </si>
+  <si>
+    <t>fog-of-war</t>
+  </si>
+  <si>
+    <t>战争迷雾</t>
+  </si>
+  <si>
+    <t>https://github.com/smilehao/fog-of-war</t>
+  </si>
 </sst>
 </file>
 
@@ -893,7 +902,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +950,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1452,128 +1467,128 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,43 +1628,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
@@ -1968,7 +1986,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -1983,771 +2001,771 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" ht="34.5" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" ht="34.5" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" ht="34.5" spans="1:4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" ht="34.5" spans="1:4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" ht="34.5" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" ht="34.5" spans="1:4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" ht="34.5" spans="1:4">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" ht="34.5" spans="1:4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" ht="34.5" spans="1:4">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" ht="34.5" spans="1:4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" ht="34.5" spans="1:4">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" ht="34.5" spans="1:4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A16" s="16" t="s">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="34.5" spans="1:4">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" s="19" customFormat="1" spans="1:5">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" s="20" customFormat="1" spans="1:5">
+      <c r="A18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A20" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="16"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" s="19" customFormat="1" spans="1:5">
-      <c r="A21" s="16" t="s">
+    <row r="21" s="20" customFormat="1" spans="1:5">
+      <c r="A21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="34.5" spans="1:4">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A23" s="16" t="s">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="34.5" spans="1:4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="16"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" ht="51.75" spans="1:4">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" ht="34.5" spans="1:4">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" ht="34.5" spans="1:4">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" ht="34.5" spans="1:4">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" ht="34.5" spans="1:4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" ht="34.5" spans="1:4">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" ht="34.5" spans="1:4">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A33" s="16" t="s">
+      <c r="D32" s="17"/>
+    </row>
+    <row r="33" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A33" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="34.5" spans="1:4">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" ht="34.5" spans="1:4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" ht="34.5" spans="1:4">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" ht="34.5" spans="1:4">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="17"/>
     </row>
     <row r="38" ht="34.5" spans="1:4">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" ht="34.5" spans="1:4">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" ht="34.5" spans="1:4">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="17"/>
     </row>
     <row r="41" ht="51.75" spans="1:4">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A43" s="16" t="s">
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A43" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="16"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" s="19" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A44" s="16" t="s">
+    <row r="44" s="20" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A44" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="16"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="34.5" spans="1:4">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="16"/>
+      <c r="D45" s="17"/>
     </row>
     <row r="46" ht="34.5" spans="1:4">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="17"/>
     </row>
     <row r="47" ht="34.5" spans="1:4">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="17"/>
     </row>
     <row r="48" ht="34.5" spans="1:4">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="16"/>
+      <c r="D48" s="17"/>
     </row>
     <row r="49" ht="34.5" spans="1:4">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="17"/>
     </row>
     <row r="50" ht="34.5" spans="1:4">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" ht="34.5" spans="1:4">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="16"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" ht="34.5" spans="1:4">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="16"/>
+      <c r="D52" s="17"/>
     </row>
     <row r="53" ht="34.5" spans="1:4">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" ht="34.5" spans="1:4">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="16"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" ht="34.5" spans="1:4">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="16"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" ht="34.5" spans="1:4">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="16"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" ht="34.5" spans="1:4">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="16"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="16"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" ht="34.5" spans="1:4">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" ht="34.5" spans="1:5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="19"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" ht="34.5" spans="1:5">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" ht="33" spans="1:5">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
@@ -2756,32 +2774,32 @@
       <c r="B64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
     </row>
   </sheetData>
   <sortState ref="A2:E66">
@@ -2874,30 +2892,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.4166666666667" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.3833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="16" customWidth="1"/>
-    <col min="4" max="4" width="23.075" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="24.4166666666667" style="17" customWidth="1"/>
+    <col min="2" max="2" width="55.3833333333333" style="17" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.075" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9" style="18"/>
+    <col min="6" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="16" customFormat="1" spans="1:3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2905,10 +2923,10 @@
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2916,10 +2934,10 @@
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2927,10 +2945,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2938,10 +2956,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2949,10 +2967,10 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>206</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2960,10 +2978,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2971,10 +2989,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -2982,10 +3000,10 @@
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -2993,10 +3011,10 @@
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3004,10 +3022,10 @@
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3015,10 +3033,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3068,8 +3086,8 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
@@ -3238,9 +3256,15 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>260</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
@@ -3252,22 +3276,22 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
@@ -3353,7 +3377,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="2:5">
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8"/>
       <c r="E38" s="3"/>
     </row>
@@ -3370,7 +3394,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="2:5">
-      <c r="B42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="8"/>
       <c r="E42" s="3"/>
     </row>
@@ -3431,7 +3455,7 @@
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="2:5">
-      <c r="B57" s="14"/>
+      <c r="B57" s="15"/>
       <c r="C57" s="8"/>
       <c r="E57" s="3"/>
     </row>
@@ -3489,6 +3513,7 @@
     <hyperlink ref="C10" r:id="rId9" display="https://github.com/i000Tea/TeaDemo-Keyboard-CurveAnim-Effect"/>
     <hyperlink ref="C11" r:id="rId10" display="https://github.com/supabase/supabase"/>
     <hyperlink ref="C12" r:id="rId11" display="https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://github.com/smilehao/fog-of-war"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
+++ b/Editor/EditorWindows/GitHubPackage/GitHubPackagesList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="PackageList" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="258">
   <si>
     <t>name</t>
   </si>
@@ -882,15 +882,6 @@
   <si>
     <t>https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file</t>
   </si>
-  <si>
-    <t>fog-of-war</t>
-  </si>
-  <si>
-    <t>战争迷雾</t>
-  </si>
-  <si>
-    <t>https://github.com/smilehao/fog-of-war</t>
-  </si>
 </sst>
 </file>
 
@@ -902,7 +893,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,12 +941,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1467,128 +1452,128 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1628,46 +1613,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
@@ -1986,7 +1968,7 @@
   <sheetPr/>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
@@ -2001,771 +1983,771 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" ht="34.5" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" ht="34.5" spans="1:4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" ht="34.5" spans="1:4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" ht="34.5" spans="1:4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="34.5" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" ht="34.5" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" ht="34.5" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" ht="34.5" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" ht="34.5" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" ht="34.5" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" ht="34.5" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" ht="34.5" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A16" s="17" t="s">
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" ht="34.5" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" s="20" customFormat="1" spans="1:5">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" s="19" customFormat="1" spans="1:5">
+      <c r="A18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A20" s="17" t="s">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" s="20" customFormat="1" spans="1:5">
-      <c r="A21" s="17" t="s">
+    <row r="21" s="19" customFormat="1" spans="1:5">
+      <c r="A21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" ht="34.5" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A23" s="17" t="s">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" ht="34.5" spans="1:4">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" ht="51.75" spans="1:4">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" ht="34.5" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="16"/>
     </row>
     <row r="27" ht="34.5" spans="1:4">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="16"/>
     </row>
     <row r="28" ht="34.5" spans="1:4">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="16"/>
     </row>
     <row r="29" ht="34.5" spans="1:4">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="16"/>
     </row>
     <row r="30" ht="34.5" spans="1:4">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" ht="34.5" spans="1:4">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A33" s="17" t="s">
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A33" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" ht="34.5" spans="1:4">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" ht="34.5" spans="1:4">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="16"/>
     </row>
     <row r="36" ht="34.5" spans="1:4">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" ht="34.5" spans="1:4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" ht="34.5" spans="1:4">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" ht="34.5" spans="1:4">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" ht="34.5" spans="1:4">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" ht="51.75" spans="1:4">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="16"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A43" s="17" t="s">
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A43" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" s="20" customFormat="1" ht="34.5" spans="1:5">
-      <c r="A44" s="17" t="s">
+    <row r="44" s="19" customFormat="1" ht="34.5" spans="1:5">
+      <c r="A44" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" ht="34.5" spans="1:4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="16"/>
     </row>
     <row r="46" ht="34.5" spans="1:4">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" ht="34.5" spans="1:4">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="16"/>
     </row>
     <row r="48" ht="34.5" spans="1:4">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" ht="34.5" spans="1:4">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="16"/>
     </row>
     <row r="50" ht="34.5" spans="1:4">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" ht="34.5" spans="1:4">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="16"/>
     </row>
     <row r="52" ht="34.5" spans="1:4">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" ht="34.5" spans="1:4">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" ht="34.5" spans="1:4">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" ht="34.5" spans="1:4">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" ht="34.5" spans="1:4">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D56" s="17"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" ht="34.5" spans="1:4">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="17"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" ht="34.5" spans="1:4">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D60" s="17"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" ht="34.5" spans="1:5">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="20"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" ht="34.5" spans="1:5">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" ht="33" spans="1:5">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="20"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
@@ -2774,32 +2756,32 @@
       <c r="B64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A2:E66">
@@ -2892,30 +2874,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="24.4166666666667" style="17" customWidth="1"/>
-    <col min="2" max="2" width="55.3833333333333" style="17" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.075" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="24.4166666666667" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.3833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.075" style="16" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="15" customFormat="1" spans="1:3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2923,10 +2905,10 @@
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>194</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2934,10 +2916,10 @@
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2945,10 +2927,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2956,10 +2938,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -2967,10 +2949,10 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>206</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2978,10 +2960,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2989,10 +2971,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3000,10 +2982,10 @@
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>215</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -3011,10 +2993,10 @@
       </c>
     </row>
     <row r="11" ht="27" spans="1:3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -3022,10 +3004,10 @@
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -3033,10 +3015,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>223</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3086,8 +3068,8 @@
   <sheetPr/>
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
@@ -3256,15 +3238,9 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
@@ -3276,22 +3252,22 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
@@ -3377,7 +3353,7 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="2:5">
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="8"/>
       <c r="E38" s="3"/>
     </row>
@@ -3394,7 +3370,7 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="2:5">
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="8"/>
       <c r="E42" s="3"/>
     </row>
@@ -3455,7 +3431,7 @@
       <c r="E56" s="3"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="2:5">
-      <c r="B57" s="15"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="8"/>
       <c r="E57" s="3"/>
     </row>
@@ -3513,7 +3489,6 @@
     <hyperlink ref="C10" r:id="rId9" display="https://github.com/i000Tea/TeaDemo-Keyboard-CurveAnim-Effect"/>
     <hyperlink ref="C11" r:id="rId10" display="https://github.com/supabase/supabase"/>
     <hyperlink ref="C12" r:id="rId11" display="https://github.com/greggman/better-unity-webgl-template?tab=readme-ov-file"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://github.com/smilehao/fog-of-war"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
